--- a/Datos/Tabla_predicciones_casos.xlsx
+++ b/Datos/Tabla_predicciones_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\covid19mcaf.github.io\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDFB39F-A453-43E4-92EA-92707B8F4514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E878ACA-05C8-4447-A34B-86984AE9F0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
   <si>
     <t>fecha</t>
   </si>
@@ -204,13 +204,22 @@
   </si>
   <si>
     <t>Predicción 12 de abril</t>
+  </si>
+  <si>
+    <t>17/04/2020</t>
+  </si>
+  <si>
+    <t>Predicción 13 de abril</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +245,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,9 +286,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +580,7 @@
     <col min="3" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,8 +593,11 @@
       <c r="D1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -588,8 +610,11 @@
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,8 +627,11 @@
       <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,8 +644,11 @@
       <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,8 +661,11 @@
       <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,8 +678,11 @@
       <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,8 +695,11 @@
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,8 +712,11 @@
       <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -686,8 +729,11 @@
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,8 +746,11 @@
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -714,8 +763,11 @@
       <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -728,8 +780,11 @@
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -742,8 +797,11 @@
       <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -756,8 +814,11 @@
       <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -770,8 +831,11 @@
       <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -784,8 +848,11 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -798,8 +865,11 @@
       <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -812,8 +882,11 @@
       <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -826,8 +899,11 @@
       <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -840,8 +916,11 @@
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -854,8 +933,11 @@
       <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -868,8 +950,11 @@
       <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,8 +967,11 @@
       <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -896,8 +984,11 @@
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,8 +1001,11 @@
       <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -924,8 +1018,11 @@
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -938,8 +1035,11 @@
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -952,8 +1052,11 @@
       <c r="D28" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -966,8 +1069,11 @@
       <c r="D29" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -980,8 +1086,11 @@
       <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -994,8 +1103,11 @@
       <c r="D31" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1008,8 +1120,11 @@
       <c r="D32" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1022,8 +1137,11 @@
       <c r="D33" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1036,8 +1154,11 @@
       <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1050,8 +1171,11 @@
       <c r="D35" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1064,8 +1188,11 @@
       <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1078,8 +1205,11 @@
       <c r="D37" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1092,8 +1222,11 @@
       <c r="D38" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1106,8 +1239,11 @@
       <c r="D39" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1120,8 +1256,11 @@
       <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1134,8 +1273,11 @@
       <c r="D41" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1148,8 +1290,11 @@
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1162,8 +1307,11 @@
       <c r="D43" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1176,8 +1324,11 @@
       <c r="D44" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1190,8 +1341,11 @@
       <c r="D45" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1204,8 +1358,11 @@
       <c r="D46" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1218,8 +1375,11 @@
       <c r="D47" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1232,13 +1392,16 @@
       <c r="D48" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>54</v>
+      <c r="B49">
+        <v>169496</v>
       </c>
       <c r="C49">
         <v>171846</v>
@@ -1246,8 +1409,12 @@
       <c r="D49">
         <v>170924</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1260,8 +1427,11 @@
       <c r="D50">
         <v>175481</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>173662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -1274,8 +1444,11 @@
       <c r="D51">
         <v>180543</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>177452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -1288,8 +1461,11 @@
       <c r="D52">
         <v>185452</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>181696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -1301,6 +1477,26 @@
       </c>
       <c r="D53">
         <v>190727</v>
+      </c>
+      <c r="E53">
+        <v>185752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>199623</v>
+      </c>
+      <c r="D54">
+        <v>195971</v>
+      </c>
+      <c r="E54">
+        <v>190124</v>
       </c>
     </row>
   </sheetData>
